--- a/data_excel/858.xlsx
+++ b/data_excel/858.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Lab Test\神經網路\makedata\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>虛詞</t>
   </si>
   <si>
-    <t>投藍</t>
-  </si>
-  <si>
     <t>球</t>
   </si>
   <si>
@@ -116,6 +113,10 @@
   </si>
   <si>
     <t>特點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投籃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +499,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -545,7 +546,7 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -554,99 +555,99 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -654,24 +655,24 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/858.xlsx
+++ b/data_excel/858.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Lab Test\神經網路\makedata\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\1000題example excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,9 @@
     <t>虛詞</t>
   </si>
   <si>
+    <t>投藍</t>
+  </si>
+  <si>
     <t>球</t>
   </si>
   <si>
@@ -113,10 +116,6 @@
   </si>
   <si>
     <t>特點</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投籃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,7 +498,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -546,7 +545,7 @@
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -555,99 +554,99 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -655,24 +654,24 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
